--- a/Data/Exploration/data_descriptives.xlsx
+++ b/Data/Exploration/data_descriptives.xlsx
@@ -446,367 +446,367 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>NAME_CONTRACT_TYPE</t>
+          <t>CNT_CHILDREN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CODE_GENDER</t>
+          <t>AMT_INCOME_TOTAL</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>FLAG_OWN_CAR</t>
+          <t>AMT_CREDIT</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>FLAG_OWN_REALTY</t>
+          <t>AMT_ANNUITY</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CNT_CHILDREN</t>
+          <t>AMT_GOODS_PRICE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>AMT_INCOME_TOTAL</t>
+          <t>REGION_POPULATION_RELATIVE</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>AMT_CREDIT</t>
+          <t>DAYS_BIRTH</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>AMT_ANNUITY</t>
+          <t>DAYS_EMPLOYED</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>AMT_GOODS_PRICE</t>
+          <t>DAYS_REGISTRATION</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>NAME_TYPE_SUITE</t>
+          <t>DAYS_ID_PUBLISH</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>NAME_INCOME_TYPE</t>
+          <t>OWN_CAR_AGE</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>NAME_EDUCATION_TYPE</t>
+          <t>FLAG_MOBIL</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>NAME_FAMILY_STATUS</t>
+          <t>FLAG_EMP_PHONE</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NAME_HOUSING_TYPE</t>
+          <t>FLAG_WORK_PHONE</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>REGION_POPULATION_RELATIVE</t>
+          <t>FLAG_CONT_MOBILE</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>DAYS_BIRTH</t>
+          <t>FLAG_PHONE</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>DAYS_EMPLOYED</t>
+          <t>FLAG_EMAIL</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>DAYS_REGISTRATION</t>
+          <t>CNT_FAM_MEMBERS</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>DAYS_ID_PUBLISH</t>
+          <t>REGION_RATING_CLIENT</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>FLAG_MOBIL</t>
+          <t>REGION_RATING_CLIENT_W_CITY</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>FLAG_EMP_PHONE</t>
+          <t>HOUR_APPR_PROCESS_START</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>FLAG_WORK_PHONE</t>
+          <t>REG_REGION_NOT_LIVE_REGION</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>FLAG_CONT_MOBILE</t>
+          <t>REG_REGION_NOT_WORK_REGION</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>FLAG_PHONE</t>
+          <t>LIVE_REGION_NOT_WORK_REGION</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>FLAG_EMAIL</t>
+          <t>REG_CITY_NOT_LIVE_CITY</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>OCCUPATION_TYPE</t>
+          <t>REG_CITY_NOT_WORK_CITY</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>CNT_FAM_MEMBERS</t>
+          <t>LIVE_CITY_NOT_WORK_CITY</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>REGION_RATING_CLIENT</t>
+          <t>EXT_SOURCE_1</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>REGION_RATING_CLIENT_W_CITY</t>
+          <t>EXT_SOURCE_2</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>WEEKDAY_APPR_PROCESS_START</t>
+          <t>EXT_SOURCE_3</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>HOUR_APPR_PROCESS_START</t>
+          <t>APARTMENTS_AVG</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>REG_REGION_NOT_LIVE_REGION</t>
+          <t>BASEMENTAREA_AVG</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>REG_REGION_NOT_WORK_REGION</t>
+          <t>YEARS_BEGINEXPLUATATION_AVG</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>LIVE_REGION_NOT_WORK_REGION</t>
+          <t>YEARS_BUILD_AVG</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>REG_CITY_NOT_LIVE_CITY</t>
+          <t>COMMONAREA_AVG</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>REG_CITY_NOT_WORK_CITY</t>
+          <t>ELEVATORS_AVG</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>LIVE_CITY_NOT_WORK_CITY</t>
+          <t>ENTRANCES_AVG</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>ORGANIZATION_TYPE</t>
+          <t>FLOORSMAX_AVG</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>EXT_SOURCE_1</t>
+          <t>FLOORSMIN_AVG</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>EXT_SOURCE_2</t>
+          <t>LANDAREA_AVG</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>EXT_SOURCE_3</t>
+          <t>LIVINGAPARTMENTS_AVG</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>APARTMENTS_AVG</t>
+          <t>LIVINGAREA_AVG</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>BASEMENTAREA_AVG</t>
+          <t>NONLIVINGAPARTMENTS_AVG</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>YEARS_BEGINEXPLUATATION_AVG</t>
+          <t>NONLIVINGAREA_AVG</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>ELEVATORS_AVG</t>
+          <t>APARTMENTS_MODE</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>ENTRANCES_AVG</t>
+          <t>BASEMENTAREA_MODE</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>FLOORSMAX_AVG</t>
+          <t>YEARS_BEGINEXPLUATATION_MODE</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>LANDAREA_AVG</t>
+          <t>YEARS_BUILD_MODE</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>LIVINGAREA_AVG</t>
+          <t>COMMONAREA_MODE</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>NONLIVINGAREA_AVG</t>
+          <t>ELEVATORS_MODE</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>APARTMENTS_MODE</t>
+          <t>ENTRANCES_MODE</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>BASEMENTAREA_MODE</t>
+          <t>FLOORSMAX_MODE</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>YEARS_BEGINEXPLUATATION_MODE</t>
+          <t>FLOORSMIN_MODE</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>ELEVATORS_MODE</t>
+          <t>LANDAREA_MODE</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>ENTRANCES_MODE</t>
+          <t>LIVINGAPARTMENTS_MODE</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>FLOORSMAX_MODE</t>
+          <t>LIVINGAREA_MODE</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>LANDAREA_MODE</t>
+          <t>NONLIVINGAPARTMENTS_MODE</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>LIVINGAREA_MODE</t>
+          <t>NONLIVINGAREA_MODE</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>NONLIVINGAREA_MODE</t>
+          <t>APARTMENTS_MEDI</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>APARTMENTS_MEDI</t>
+          <t>BASEMENTAREA_MEDI</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>BASEMENTAREA_MEDI</t>
+          <t>YEARS_BEGINEXPLUATATION_MEDI</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>YEARS_BEGINEXPLUATATION_MEDI</t>
+          <t>YEARS_BUILD_MEDI</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
+          <t>COMMONAREA_MEDI</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
           <t>ELEVATORS_MEDI</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>ENTRANCES_MEDI</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>FLOORSMAX_MEDI</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>FLOORSMIN_MEDI</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>LANDAREA_MEDI</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>LIVINGAPARTMENTS_MEDI</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>LIVINGAREA_MEDI</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>NONLIVINGAPARTMENTS_MEDI</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>NONLIVINGAREA_MEDI</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>FONDKAPREMONT_MODE</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>HOUSETYPE_MODE</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>TOTALAREA_MODE</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>WALLSMATERIAL_MODE</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>EMERGENCYSTATE_MODE</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
@@ -972,322 +972,322 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="C2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="D2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="E2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="F2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="G2" t="n">
-        <v>999</v>
+        <v>307499</v>
       </c>
       <c r="H2" t="n">
-        <v>999</v>
+        <v>307233</v>
       </c>
       <c r="I2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="J2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="K2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="L2" t="n">
-        <v>998</v>
+        <v>307511</v>
       </c>
       <c r="M2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="N2" t="n">
-        <v>999</v>
+        <v>104582</v>
       </c>
       <c r="O2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="P2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="Q2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="R2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="S2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="T2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="U2" t="n">
-        <v>999</v>
+        <v>307509</v>
       </c>
       <c r="V2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="W2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="X2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="Y2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="Z2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="AA2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="AB2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="AC2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="AD2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="AE2" t="n">
-        <v>999</v>
+        <v>134133</v>
       </c>
       <c r="AF2" t="n">
-        <v>999</v>
+        <v>306851</v>
       </c>
       <c r="AG2" t="n">
-        <v>999</v>
+        <v>246546</v>
       </c>
       <c r="AH2" t="n">
-        <v>999</v>
+        <v>151450</v>
       </c>
       <c r="AI2" t="n">
-        <v>999</v>
+        <v>127568</v>
       </c>
       <c r="AJ2" t="n">
-        <v>999</v>
+        <v>157504</v>
       </c>
       <c r="AK2" t="n">
-        <v>999</v>
+        <v>103023</v>
       </c>
       <c r="AL2" t="n">
-        <v>999</v>
+        <v>92646</v>
       </c>
       <c r="AM2" t="n">
-        <v>999</v>
+        <v>143620</v>
       </c>
       <c r="AN2" t="n">
-        <v>999</v>
+        <v>152683</v>
       </c>
       <c r="AO2" t="n">
-        <v>999</v>
+        <v>154491</v>
       </c>
       <c r="AP2" t="n">
-        <v>423</v>
+        <v>98869</v>
       </c>
       <c r="AQ2" t="n">
-        <v>996</v>
+        <v>124921</v>
       </c>
       <c r="AR2" t="n">
-        <v>790</v>
+        <v>97312</v>
       </c>
       <c r="AS2" t="n">
-        <v>505</v>
+        <v>153161</v>
       </c>
       <c r="AT2" t="n">
-        <v>426</v>
+        <v>93997</v>
       </c>
       <c r="AU2" t="n">
-        <v>521</v>
+        <v>137829</v>
       </c>
       <c r="AV2" t="n">
-        <v>479</v>
+        <v>151450</v>
       </c>
       <c r="AW2" t="n">
-        <v>512</v>
+        <v>127568</v>
       </c>
       <c r="AX2" t="n">
-        <v>521</v>
+        <v>157504</v>
       </c>
       <c r="AY2" t="n">
-        <v>402</v>
+        <v>103023</v>
       </c>
       <c r="AZ2" t="n">
-        <v>511</v>
+        <v>92646</v>
       </c>
       <c r="BA2" t="n">
-        <v>465</v>
+        <v>143620</v>
       </c>
       <c r="BB2" t="n">
-        <v>505</v>
+        <v>152683</v>
       </c>
       <c r="BC2" t="n">
-        <v>426</v>
+        <v>154491</v>
       </c>
       <c r="BD2" t="n">
-        <v>521</v>
+        <v>98869</v>
       </c>
       <c r="BE2" t="n">
-        <v>479</v>
+        <v>124921</v>
       </c>
       <c r="BF2" t="n">
-        <v>512</v>
+        <v>97312</v>
       </c>
       <c r="BG2" t="n">
-        <v>521</v>
+        <v>153161</v>
       </c>
       <c r="BH2" t="n">
-        <v>402</v>
+        <v>93997</v>
       </c>
       <c r="BI2" t="n">
-        <v>511</v>
+        <v>137829</v>
       </c>
       <c r="BJ2" t="n">
-        <v>465</v>
+        <v>151450</v>
       </c>
       <c r="BK2" t="n">
-        <v>505</v>
+        <v>127568</v>
       </c>
       <c r="BL2" t="n">
-        <v>426</v>
+        <v>157504</v>
       </c>
       <c r="BM2" t="n">
-        <v>521</v>
+        <v>103023</v>
       </c>
       <c r="BN2" t="n">
-        <v>479</v>
+        <v>92646</v>
       </c>
       <c r="BO2" t="n">
-        <v>512</v>
+        <v>143620</v>
       </c>
       <c r="BP2" t="n">
-        <v>521</v>
+        <v>152683</v>
       </c>
       <c r="BQ2" t="n">
-        <v>402</v>
+        <v>154491</v>
       </c>
       <c r="BR2" t="n">
-        <v>511</v>
+        <v>98869</v>
       </c>
       <c r="BS2" t="n">
-        <v>465</v>
+        <v>124921</v>
       </c>
       <c r="BT2" t="n">
-        <v>999</v>
+        <v>97312</v>
       </c>
       <c r="BU2" t="n">
-        <v>999</v>
+        <v>153161</v>
       </c>
       <c r="BV2" t="n">
-        <v>531</v>
+        <v>93997</v>
       </c>
       <c r="BW2" t="n">
-        <v>999</v>
+        <v>137829</v>
       </c>
       <c r="BX2" t="n">
-        <v>538</v>
+        <v>159080</v>
       </c>
       <c r="BY2" t="n">
-        <v>995</v>
+        <v>306490</v>
       </c>
       <c r="BZ2" t="n">
-        <v>995</v>
+        <v>306490</v>
       </c>
       <c r="CA2" t="n">
-        <v>995</v>
+        <v>306490</v>
       </c>
       <c r="CB2" t="n">
-        <v>995</v>
+        <v>306490</v>
       </c>
       <c r="CC2" t="n">
-        <v>999</v>
+        <v>307510</v>
       </c>
       <c r="CD2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CE2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CF2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CG2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CH2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CI2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CJ2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CK2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CL2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CM2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CN2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CO2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CP2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CQ2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CR2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CS2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CT2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CU2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CV2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CW2" t="n">
-        <v>999</v>
+        <v>307511</v>
       </c>
       <c r="CX2" t="n">
-        <v>855</v>
+        <v>265992</v>
       </c>
       <c r="CY2" t="n">
-        <v>855</v>
+        <v>265992</v>
       </c>
       <c r="CZ2" t="n">
-        <v>855</v>
+        <v>265992</v>
       </c>
       <c r="DA2" t="n">
-        <v>855</v>
+        <v>265992</v>
       </c>
       <c r="DB2" t="n">
-        <v>855</v>
+        <v>265992</v>
       </c>
       <c r="DC2" t="n">
-        <v>855</v>
+        <v>265992</v>
       </c>
     </row>
     <row r="3">
@@ -1303,61 +1303,61 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>25650</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1615.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>40500</v>
       </c>
       <c r="I3" t="n">
-        <v>31500</v>
+        <v>0.00029</v>
       </c>
       <c r="J3" t="n">
-        <v>47970</v>
+        <v>-25229</v>
       </c>
       <c r="K3" t="n">
-        <v>4504.5</v>
+        <v>-17912</v>
       </c>
       <c r="L3" t="n">
-        <v>45000</v>
+        <v>-24672</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>-7197</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001333</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-25104</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-15632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-17298</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>-6223</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0.014568132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>8.17e-08</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0.000527265</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0406839020712861</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0028123027588958</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.000527265238709881</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.4933</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.4933</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
@@ -1507,16 +1507,16 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-3409</v>
+        <v>-4292</v>
       </c>
       <c r="CD3" t="n">
         <v>0</v>
@@ -1622,322 +1622,322 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101155</v>
+        <v>456255</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>117000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>4050000</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>258025.5</v>
       </c>
       <c r="H4" t="n">
+        <v>4050000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.072508</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-7489</v>
+      </c>
+      <c r="K4" t="n">
+        <v>365243</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>91</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>20</v>
+      </c>
+      <c r="V4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>765000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2286211.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>116266.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.9626927709999999</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.854999666</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.896009549</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>348</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>344</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>24</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>4</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>9</v>
+      </c>
+      <c r="CZ4" t="n">
         <v>8</v>
       </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.072508</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-7705</v>
-      </c>
-      <c r="T4" t="n">
-        <v>365243</v>
-      </c>
-      <c r="U4" t="n">
-        <v>-3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.926498977520153</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.81511448692203</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.865895915275066</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.6639</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.9995000000000001</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.6207</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.8004</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0.7641</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.7729</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.6765</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>0.4742</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.9995000000000001</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>0.8862</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>0.6207</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>0.8187</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>0.7961</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0.8183</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0.6703</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.9995000000000001</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0.6207</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.8144</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0.7778</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0.7892</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.7628</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>14</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>14</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>3</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>3</v>
-      </c>
       <c r="DA4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="DB4" t="n">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="DC4" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1947,322 +1947,322 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.5027850673496</v>
+        <v>89010.22819273299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.130320510700891</v>
+        <v>0.1484233543319318</v>
       </c>
       <c r="D5" t="n">
-        <v>0.175338501664828</v>
+        <v>0.5841797656865559</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4581558535512489</v>
+        <v>66226.34796271479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4451097744391039</v>
+        <v>316583.7417363631</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4145446748049351</v>
+        <v>10975.42924514813</v>
       </c>
       <c r="H5" t="n">
-        <v>0.578877175473772</v>
+        <v>288576.1487382895</v>
       </c>
       <c r="I5" t="n">
-        <v>65956.80887265643</v>
+        <v>0.01029051821706733</v>
       </c>
       <c r="J5" t="n">
-        <v>307781.505640776</v>
+        <v>3728.371853811482</v>
       </c>
       <c r="K5" t="n">
-        <v>10905.51803154506</v>
+        <v>108557.2322948395</v>
       </c>
       <c r="L5" t="n">
-        <v>281266.6445114678</v>
+        <v>2915.43984047478</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4873902931960989</v>
+        <v>1316.242613473784</v>
       </c>
       <c r="N5" t="n">
-        <v>1.103986869752635</v>
+        <v>7.669164576637254</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4839434028623218</v>
+        <v>6.503811233358062e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7015884753622492</v>
+        <v>0.2953415821636364</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4057791525258992</v>
+        <v>0.3192413758103186</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01030806348290233</v>
+        <v>0.003726231397646582</v>
       </c>
       <c r="S5" t="n">
-        <v>3579.533870206543</v>
+        <v>0.4041361298717002</v>
       </c>
       <c r="T5" t="n">
-        <v>97884.90922954988</v>
+        <v>0.1070055452763676</v>
       </c>
       <c r="U5" t="n">
-        <v>2901.139117095073</v>
+        <v>0.6658701732424416</v>
       </c>
       <c r="V5" t="n">
-        <v>1327.816735654573</v>
+        <v>0.2978394612731142</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.2762665184329385</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2662883103323543</v>
+        <v>2.632819627138886</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3332020709398086</v>
+        <v>0.02982965541433524</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00598796995193396</v>
+        <v>0.09638286558796454</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4170096021947873</v>
+        <v>0.07801115519170633</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1199197195193191</v>
+        <v>0.144123649172576</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.674897119341564</v>
+        <v>0.3546894169256615</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6653560467374283</v>
+        <v>0.294629430378778</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.2742502262021783</v>
+        <v>0.1791559885937092</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2442723003283564</v>
+        <v>0.1571668287374069</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.950082214346478</v>
+        <v>0.1626360572886217</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.694766838910983</v>
+        <v>0.07328633616996739</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0353867380894408</v>
+        <v>0.05236142444613472</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1076030985940896</v>
+        <v>0.01093313591200683</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0860319779238698</v>
+        <v>0.08390952091041472</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1540279017756495</v>
+        <v>0.04202350883353013</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.3752501249998747</v>
+        <v>0.09788047262305266</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.3117391665940215</v>
+        <v>0.06996517838229008</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.056186316446576</v>
+        <v>0.1161153802584285</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.1806844647784747</v>
+        <v>0.1245999699006018</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.1624220459618572</v>
+        <v>0.04953195606577671</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1656309360157644</v>
+        <v>0.06156775917832975</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.06870418664836782</v>
+        <v>0.07356879394106502</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.04889569529855187</v>
+        <v>0.01223547867863914</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.008317092112098017</v>
+        <v>0.03605750481387826</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.09705981058311287</v>
+        <v>0.07243614951487443</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.06100233840942382</v>
+        <v>0.05376134995557327</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1175897834151805</v>
+        <v>0.01161003330605291</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.04913483948417119</v>
+        <v>0.08130211840099871</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.07168358577058144</v>
+        <v>0.04077390279314481</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.03896751624465256</v>
+        <v>0.09515933095066799</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.06756016625820999</v>
+        <v>0.07024146313289881</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.05060097313143335</v>
+        <v>0.1151750590571803</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.01122384827642105</v>
+        <v>0.1234608689378981</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.09442726714057208</v>
+        <v>0.05011826514323751</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.06132168197631836</v>
+        <v>0.06518748852338968</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.117381635788256</v>
+        <v>0.07363517826249154</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.050002391029925</v>
+        <v>0.01147370157707403</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.07232067355746953</v>
+        <v>0.03603952945746659</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.04077349890160713</v>
+        <v>0.07375273042316484</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.06904995667091461</v>
+        <v>0.05224764411354185</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.04868637505785889</v>
+        <v>0.01091766671006151</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.007646727649839207</v>
+        <v>0.08303355232153373</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.09675480842569549</v>
+        <v>0.04212149948738789</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.06159617080688476</v>
+        <v>0.09759007143768443</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1180554838804749</v>
+        <v>0.07026056281910725</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.04973355610009653</v>
+        <v>0.1165514151102296</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.07295317573079146</v>
+        <v>0.1249151994927358</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.04007487848306163</v>
+        <v>0.05033975290916851</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.4427009592174757</v>
+        <v>0.06235374349959077</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.5110636161687213</v>
+        <v>0.07459234938855715</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.07283919478225712</v>
+        <v>0.01208728818256557</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.8939870801732662</v>
+        <v>0.03639093504045568</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.01841461560785506</v>
+        <v>0.07292779046783905</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.554546602358526</v>
+        <v>1.65564061447754</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.2260306557915203</v>
+        <v>0.253929778136536</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.540565137244009</v>
+        <v>1.639273521325691</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.1615171334057221</v>
+        <v>0.1832740959459746</v>
       </c>
       <c r="CC5" t="n">
-        <v>706.7895102309517</v>
+        <v>696.2769861162186</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>8.454624664589957e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.4007891775659544</v>
+        <v>0.4117803586336008</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>0.0001625825908821489</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.03345487629771914</v>
+        <v>0.02977289212275518</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.1234026819612405</v>
+        <v>0.1606032710417176</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.000383652487746695</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.1556912267622978</v>
+        <v>0.1495078108276217</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.007975943911879847</v>
+        <v>0.007761236748435846</v>
       </c>
       <c r="CL5" t="n">
-        <v>0</v>
+        <v>4.552579033664884e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.005987969951933919</v>
+        <v>0.0077935020055884</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>1.300758016679231e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.003995987979971963</v>
+        <v>0.007025301965572254</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.003995987979971963</v>
+        <v>0.00585571480870675</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.001999997995993992</v>
+        <v>0.002416498836332615</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.01981961941921901</v>
+        <v>0.01965906592150486</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>0.0005331720433774896</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.009959909859809758</v>
+        <v>0.01612739397161339</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>0.001189493036533061</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>0.001014083147383741</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>0.0006696703559945707</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.01853835368147464</v>
+        <v>0.01272662049412515</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01396942649020211</v>
+        <v>0.01392204793013991</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.07005505967648165</v>
+        <v>0.06651844053120187</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.3943613419513697</v>
+        <v>0.4468108124854717</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.4611962655175952</v>
+        <v>0.4299952245485326</v>
       </c>
       <c r="DC5" t="n">
-        <v>1.477539071851168</v>
+        <v>1.454802727165179</v>
       </c>
     </row>
     <row r="6">
@@ -2272,322 +2272,322 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100574.9059059059</v>
+        <v>278180.5185765713</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07007007007007007</v>
+        <v>0.08072881945686496</v>
       </c>
       <c r="D6" t="n">
-        <v>1.097097097097097</v>
+        <v>0.4170517477423572</v>
       </c>
       <c r="E6" t="n">
-        <v>1.644644644644645</v>
+        <v>168797.9192969845</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3343343343343343</v>
+        <v>599025.9997057016</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7067067067067067</v>
+        <v>27108.57390918344</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4044044044044044</v>
+        <v>538396.2074288895</v>
       </c>
       <c r="I6" t="n">
-        <v>167648.1287837838</v>
+        <v>0.02086811205778004</v>
       </c>
       <c r="J6" t="n">
-        <v>595222.0855855856</v>
+        <v>-16036.99506684314</v>
       </c>
       <c r="K6" t="n">
-        <v>27120.71621621622</v>
+        <v>63815.04590404896</v>
       </c>
       <c r="L6" t="n">
-        <v>536054.6092184369</v>
+        <v>-4986.12032753843</v>
       </c>
       <c r="M6" t="n">
-        <v>1.301301301301301</v>
+        <v>-2994.202373248437</v>
       </c>
       <c r="N6" t="n">
-        <v>2.045045045045045</v>
+        <v>12.06109081868773</v>
       </c>
       <c r="O6" t="n">
-        <v>1.344344344344344</v>
+        <v>0.9999967480838083</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25025025025025</v>
+        <v>0.8198893698111612</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.223223223223223</v>
+        <v>0.1993684778755882</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0211249089089089</v>
+        <v>0.9981334001060125</v>
       </c>
       <c r="S6" t="n">
-        <v>-15871.08908908909</v>
+        <v>0.2810663683575547</v>
       </c>
       <c r="T6" t="n">
-        <v>55790.39139139139</v>
+        <v>0.0567199222141647</v>
       </c>
       <c r="U6" t="n">
-        <v>-4891.820820820821</v>
+        <v>2.152665450442101</v>
       </c>
       <c r="V6" t="n">
-        <v>-2936.972972972973</v>
+        <v>2.052463163919339</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>2.031520823645333</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8418418418418419</v>
+        <v>12.06341886956889</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2112112112112112</v>
+        <v>0.01514417370435529</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.996996996996997</v>
+        <v>0.05076891558350758</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.04065870814377372</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06406406406406406</v>
+        <v>0.07817281333025486</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.25925925925926</v>
+        <v>0.2304535447512447</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.127127127127127</v>
+        <v>0.1795545525200725</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.042042042042042</v>
+        <v>0.5021298056569151</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.016016016016016</v>
+        <v>0.5143926741305576</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.03003003003003</v>
+        <v>0.5108529061736189</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.97897897897898</v>
+        <v>0.1174404991746451</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.01801801801801802</v>
+        <v>0.08844221905179982</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.05705705705705705</v>
+        <v>0.9777348581623325</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.04504504504504504</v>
+        <v>0.752471432592722</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.08408408408408409</v>
+        <v>0.04462071541135074</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.2502502502502503</v>
+        <v>0.07894151232418883</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.1931931931931932</v>
+        <v>0.1497246700680495</v>
       </c>
       <c r="AO6" t="n">
-        <v>10.77677677677678</v>
+        <v>0.2262819070366559</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.500330303401269</v>
+        <v>0.2318935004905481</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5156122513436436</v>
+        <v>0.06633318417239695</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.5132733084859623</v>
+        <v>0.1007747749506741</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.1128914851485149</v>
+        <v>0.1073990193325977</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.08620985915492958</v>
+        <v>0.00880867261721119</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9799857965451056</v>
+        <v>0.02835775707579683</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.079419624217119</v>
+        <v>0.1142310069329812</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.1418814453125</v>
+        <v>0.08754321224758557</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.2281454894433781</v>
+        <v>0.9770653729429093</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.06489278606965174</v>
+        <v>0.7596373227337584</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.1049095890410959</v>
+        <v>0.04255313775014571</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.03115827956989247</v>
+        <v>0.074489736109177</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.1092720792079208</v>
+        <v>0.1451926586456907</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0855631455399061</v>
+        <v>0.2223150474784939</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.9775719769673704</v>
+        <v>0.2280584925507489</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.07501085594989561</v>
+        <v>0.06495768445657654</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.1373841796875</v>
+        <v>0.1056448567494245</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.2246554702495202</v>
+        <v>0.1059750504371217</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.06409651741293532</v>
+        <v>0.008076387544283329</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.1033491193737769</v>
+        <v>0.02702231968598771</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.03085010752688172</v>
+        <v>0.1178499207659293</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.1135572277227723</v>
+        <v>0.08795485466574691</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.08584295774647888</v>
+        <v>0.9777522640694839</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.9805648752399232</v>
+        <v>0.7557462721916463</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.07887265135699374</v>
+        <v>0.04459510178529025</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.1417962890625</v>
+        <v>0.07807784431137725</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.2278543186180422</v>
+        <v>0.1492127807286993</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.06557213930348259</v>
+        <v>0.2258965900926268</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.1065620352250489</v>
+        <v>0.231624938049338</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.03150817204301075</v>
+        <v>0.06716874904939921</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.898898898898899</v>
+        <v>0.1019544732407103</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.503503503503504</v>
+        <v>0.1086067360489942</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.1004532956685499</v>
+        <v>0.008651013330212667</v>
       </c>
       <c r="BW6" t="n">
-        <v>2.827827827827828</v>
+        <v>0.02823592059726182</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.00929368029739777</v>
+        <v>0.1025466626854413</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.311557788944724</v>
+        <v>1.422245423994257</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.1266331658291457</v>
+        <v>0.1434206662533851</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.294472361809045</v>
+        <v>1.405292179190186</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.08743718592964825</v>
+        <v>0.100048941237887</v>
       </c>
       <c r="CC6" t="n">
-        <v>-979.7657657657658</v>
+        <v>-962.8587883320868</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>4.227491049100682e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.7227227227227228</v>
+        <v>0.7100233812774177</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>8.129790479039775e-05</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.01701701701701702</v>
+        <v>0.01511490645863075</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.06606606606606606</v>
+        <v>0.0880553866365756</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.0001918630553053387</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.08508508508508508</v>
+        <v>0.08137595077899652</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.004004004004004004</v>
+        <v>0.00389579559755586</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>2.276341334131137e-05</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.003003003003003003</v>
+        <v>0.003912055178513939</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>6.503832383231819e-06</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.002002002002002002</v>
+        <v>0.003525077151711646</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.002002002002002002</v>
+        <v>0.002936480321029166</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.001001001001001001</v>
+        <v>0.001209712823281118</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.01001001001001001</v>
+        <v>0.009928100133003373</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>0.0002666571277125046</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.005005005005005005</v>
+        <v>0.008129790479039774</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>0.0005951006630657115</v>
       </c>
       <c r="CV6" t="n">
-        <v>0</v>
+        <v>0.0005072989258920819</v>
       </c>
       <c r="CW6" t="n">
-        <v>0</v>
+        <v>0.0003349473677364387</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.009356725146198831</v>
+        <v>0.006402448193930645</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.007017543859649123</v>
+        <v>0.007000210532647599</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.03625730994152047</v>
+        <v>0.0343619356973142</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.2315789473684211</v>
+        <v>0.2673952600078198</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.2912280701754386</v>
+        <v>0.2654741495984841</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.899415204678363</v>
+        <v>1.899974435321363</v>
       </c>
     </row>
     <row r="7">
@@ -2597,79 +2597,79 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100576</v>
+        <v>278202</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>147150</v>
+      </c>
+      <c r="F7" t="n">
+        <v>513531</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24903</v>
+      </c>
+      <c r="H7" t="n">
+        <v>450000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01885</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-15750</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1213</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-4504</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-3254</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>144000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>515529</v>
-      </c>
-      <c r="K7" t="n">
-        <v>25348.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>450000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="V7" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.01885</v>
-      </c>
-      <c r="S7" t="n">
-        <v>-15705</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-1270</v>
-      </c>
-      <c r="U7" t="n">
-        <v>-4503</v>
-      </c>
-      <c r="V7" t="n">
-        <v>-3168</v>
-      </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -2678,148 +2678,148 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>2</v>
+        <v>0.505997931</v>
       </c>
       <c r="AF7" t="n">
-        <v>2</v>
+        <v>0.565961426</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>0.53527625</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>0.0876</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.9816</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>0.7552</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.0211</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>0.1379</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>0.1667</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.507889218920253</v>
+        <v>0.2083</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.571290414658193</v>
+        <v>0.0481</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.5343789402264585</v>
+        <v>0.0756</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0835</v>
+        <v>0.0745</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0759</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="AX7" t="n">
         <v>0.9816</v>
       </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
+      <c r="AY7" t="n">
+        <v>0.7648</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
         <v>0.1379</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="BC7" t="n">
         <v>0.1667</v>
       </c>
-      <c r="AY7" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0.0703</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0.07375</v>
-      </c>
       <c r="BD7" t="n">
+        <v>0.2083</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.0458</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.0771</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.0731</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.0864</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.07580000000000001</v>
+      </c>
+      <c r="BL7" t="n">
         <v>0.9816</v>
       </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
+      <c r="BM7" t="n">
+        <v>0.7585</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
         <v>0.1379</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BQ7" t="n">
         <v>0.1667</v>
       </c>
-      <c r="BH7" t="n">
-        <v>0.04305</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0.0689</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0.07605000000000001</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0.9816</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0.1379</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0.1667</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0.046</v>
-      </c>
       <c r="BR7" t="n">
-        <v>0.0716</v>
+        <v>0.2083</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0043</v>
+        <v>0.0487</v>
       </c>
       <c r="BT7" t="n">
-        <v>2</v>
+        <v>0.0761</v>
       </c>
       <c r="BU7" t="n">
-        <v>1</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0645</v>
+        <v>0</v>
       </c>
       <c r="BW7" t="n">
-        <v>3</v>
+        <v>0.0031</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.0688</v>
       </c>
       <c r="BY7" t="n">
         <v>0</v>
@@ -2922,322 +2922,322 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109773.6604761074</v>
+        <v>10565820148.15987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06522554618747002</v>
+        <v>0.07421191849690523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08775709577312785</v>
+        <v>0.5214592938621124</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2293074637764016</v>
+        <v>56227386501.18386</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2227778881085494</v>
+        <v>161998825566.727</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2074800251152956</v>
+        <v>210068421.3596536</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5076358924054315</v>
+        <v>136490687205.5763</v>
       </c>
       <c r="I8" t="n">
-        <v>8138194396.979675</v>
+        <v>0.0001913043098327261</v>
       </c>
       <c r="J8" t="n">
-        <v>151057081485.1302</v>
+        <v>19044396.77835361</v>
       </c>
       <c r="K8" t="n">
-        <v>204091945.8710394</v>
+        <v>19958842205.45393</v>
       </c>
       <c r="L8" t="n">
-        <v>129447339793.1771</v>
+        <v>12410728.03042884</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6576235554191466</v>
+        <v>2278440.567428403</v>
       </c>
       <c r="N8" t="n">
-        <v>1.411796566105183</v>
+        <v>142.6785237352808</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3382219895245947</v>
+        <v>3.25191619161591e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9874122619613603</v>
+        <v>0.1476712712964163</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5743699611435082</v>
+        <v>0.1596212069799468</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0001970611439846801</v>
+        <v>0.001863121757539108</v>
       </c>
       <c r="S8" t="n">
-        <v>17957685.9209129</v>
+        <v>0.2020687220463991</v>
       </c>
       <c r="T8" t="n">
-        <v>18013507339.85568</v>
+        <v>0.05350294662528224</v>
       </c>
       <c r="U8" t="n">
-        <v>12427388.89271235</v>
+        <v>0.829340920442867</v>
       </c>
       <c r="V8" t="n">
-        <v>2293254.845962195</v>
+        <v>0.2591155142157631</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.2527445242639452</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1332775661432976</v>
+        <v>10.66566032065841</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1667679703751848</v>
+        <v>0.01491487620909504</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.002996984960912817</v>
+        <v>0.04819158950899248</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2087137237437838</v>
+        <v>0.03900570443913498</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06001993977945883</v>
+        <v>0.07206205892606422</v>
       </c>
       <c r="AC8" t="n">
-        <v>13.66317820826839</v>
+        <v>0.1773452851748351</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.8405359267082715</v>
+        <v>0.1473151942460544</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.242719673581397</v>
+        <v>0.04454727306867146</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2322081600638715</v>
+        <v>0.03650398282298609</v>
       </c>
       <c r="AG8" t="n">
-        <v>4.622343786672443</v>
+        <v>0.03796432637185074</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.91238332520898</v>
+        <v>0.01171596066077863</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01771109787141852</v>
+        <v>0.006796050015730016</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.05385545866507789</v>
+        <v>0.003507400963589464</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.04305909115528354</v>
+        <v>0.0128323417778073</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.07709111917528753</v>
+        <v>0.00578143452537085</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1878130635645665</v>
+        <v>0.01811070007215984</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.1560257652442021</v>
+        <v>0.01000982656492091</v>
       </c>
       <c r="AO8" t="n">
-        <v>117.6244701615443</v>
+        <v>0.02092093196573597</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.04559103143807597</v>
+        <v>0.02604359761321575</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.03839951733789234</v>
+        <v>0.006590783517597917</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0399839665227681</v>
+        <v>0.00857034057907196</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.009564977724972494</v>
+        <v>0.01222451378684189</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.004922983714333058</v>
+        <v>0.002278311562088626</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0007495270286431421</v>
+        <v>0.004833473019118194</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.01737399651785013</v>
+        <v>0.01165018853390543</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.007303204684404048</v>
+        <v>0.007107699734433552</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.02186549179211576</v>
+        <v>0.004169987074135053</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.00582710675580948</v>
+        <v>0.01212443834229928</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0112497351823798</v>
+        <v>0.005541986935969086</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.005587328212550983</v>
+        <v>0.01749168766555955</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.009440128326025459</v>
+        <v>0.01019635213791459</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.005360009015023474</v>
+        <v>0.02065239354397777</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.00377760917473793</v>
+        <v>0.02597247194847403</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.01686581753880556</v>
+        <v>0.006683107921756374</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.007505829788366867</v>
+        <v>0.009580581822464089</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.02181146320559575</v>
+        <v>0.01250936349928333</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.006087629563901193</v>
+        <v>0.002141492815249101</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.01188660591588964</v>
+        <v>0.00493560471056643</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.00627334513468669</v>
+        <v>0.0118975532699724</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.009742777174838914</v>
+        <v>0.006753346871788987</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.004912069279701739</v>
+        <v>0.003587688764103749</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0005456547061863282</v>
+        <v>0.01255885775723472</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01732843353918991</v>
+        <v>0.00579794867221318</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.007381364741583598</v>
+        <v>0.01808141380806578</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02196377348612136</v>
+        <v>0.01007381461403234</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.006010341815362094</v>
+        <v>0.02104444200908577</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0116723109480066</v>
+        <v>0.02622247184885651</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.005851646010659992</v>
+        <v>0.006751417578365465</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.5518925739366622</v>
+        <v>0.00876888647565844</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.2802983344065508</v>
+        <v>0.01260236567785595</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.01116396773911808</v>
+        <v>0.002248156422570963</v>
       </c>
       <c r="BW8" t="n">
-        <v>1.531449284956299</v>
+        <v>0.00492333512704759</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.009224453628515849</v>
+        <v>0.01154815111163774</v>
       </c>
       <c r="BY8" t="n">
-        <v>4.824363265017239</v>
+        <v>5.764746958942107</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.1569861379331264</v>
+        <v>0.1995394868119246</v>
       </c>
       <c r="CA8" t="n">
-        <v>4.737142452706187</v>
+        <v>5.663463994092294</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.1040170672274855</v>
+        <v>0.1312546266452676</v>
       </c>
       <c r="CC8" t="n">
-        <v>692753.2276444782</v>
+        <v>683612.2742424596</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>4.227326079205104e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.2005953849641225</v>
+        <v>0.2058908488565857</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>8.129155979441402e-05</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.01674419910892857</v>
+        <v>0.01488649447100999</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.06176316597158282</v>
+        <v>0.08030189665589672</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.0001918268676782446</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.07792361499776329</v>
+        <v>0.07475414850803677</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.003991967919823631</v>
+        <v>0.003880630993704684</v>
       </c>
       <c r="CL8" t="n">
-        <v>0</v>
+        <v>2.276296919159249e-05</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.002996984960912815</v>
+        <v>0.00389676367474309</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>6.503811233245208e-06</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.00199999598797194</v>
+        <v>0.003512662405669879</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.001999995987971941</v>
+        <v>0.002927866925531238</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.001001001001001001</v>
+        <v>0.001208253347304932</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.009919739378657212</v>
+        <v>0.009829564925673771</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>0.0002665868886069642</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.004984944864704383</v>
+        <v>0.008063723208358754</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>0.000594748452338652</v>
       </c>
       <c r="CV8" t="n">
-        <v>0</v>
+        <v>0.0005070432225539359</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>0.0003348362668567629</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.009280030677787368</v>
+        <v>0.007030676341401538</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.01400221866140762</v>
+        <v>0.01226720305569816</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.04200939507238041</v>
+        <v>0.04189589838651137</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.5645753728583754</v>
+        <v>0.8390603897573367</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.4221126586959201</v>
+        <v>0.630524372630099</v>
       </c>
       <c r="DC8" t="n">
-        <v>3.626873193913746</v>
+        <v>3.494263790226587</v>
       </c>
     </row>
     <row r="9">
@@ -3247,322 +3247,322 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>331.321083657692</v>
+        <v>102790.1753484246</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2553929250928264</v>
+        <v>0.272418645648394</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2962382415778352</v>
+        <v>0.7221213844376252</v>
       </c>
       <c r="E9" t="n">
-        <v>0.478860589082461</v>
+        <v>237123.1462788563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4719935254943116</v>
+        <v>402490.7769958549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4554997531451533</v>
+        <v>14493.73731511833</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7124857138254994</v>
+        <v>369446.4605400576</v>
       </c>
       <c r="I9" t="n">
-        <v>90211.94154312208</v>
+        <v>0.0138312801227047</v>
       </c>
       <c r="J9" t="n">
-        <v>388660.6250768531</v>
+        <v>4363.98863178556</v>
       </c>
       <c r="K9" t="n">
-        <v>14286.07524378335</v>
+        <v>141275.7665187272</v>
       </c>
       <c r="L9" t="n">
-        <v>359787.9094594163</v>
+        <v>3522.886320963087</v>
       </c>
       <c r="M9" t="n">
-        <v>0.810939920967729</v>
+        <v>1509.450419003023</v>
       </c>
       <c r="N9" t="n">
-        <v>1.188190458682943</v>
+        <v>11.94481158224276</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5815685596080609</v>
+        <v>0.001803307015351493</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9936861989387598</v>
+        <v>0.3842801989387643</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7578719952231434</v>
+        <v>0.3995262281502265</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01403784684289867</v>
+        <v>0.04316389414243237</v>
       </c>
       <c r="S9" t="n">
-        <v>4237.650990927981</v>
+        <v>0.4495205468567584</v>
       </c>
       <c r="T9" t="n">
-        <v>134214.4080933775</v>
+        <v>0.2313070397227076</v>
       </c>
       <c r="U9" t="n">
-        <v>3525.250188669218</v>
+        <v>0.9106815691792972</v>
       </c>
       <c r="V9" t="n">
-        <v>1514.349644554452</v>
+        <v>0.50903390281568</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.5027370329147687</v>
       </c>
       <c r="X9" t="n">
-        <v>0.3650720013138471</v>
+        <v>3.26583225543787</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4083723428137425</v>
+        <v>0.122126476282152</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05474472541636149</v>
+        <v>0.2195258287969606</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.4568519713690462</v>
+        <v>0.1974986188284236</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.2449896728016486</v>
+        <v>0.2684437723734046</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.69637365647311</v>
+        <v>0.4211238359138972</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.9168074643611228</v>
+        <v>0.3838166153855957</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4926658843287173</v>
+        <v>0.211062249274169</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.4818798191083244</v>
+        <v>0.1910601549852457</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.149963671012244</v>
+        <v>0.194844364485737</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.303389672020087</v>
+        <v>0.1082402913003223</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1330830487756368</v>
+        <v>0.08243815873568511</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.2320677889433988</v>
+        <v>0.05922331435836282</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.207506846044374</v>
+        <v>0.1132799266322472</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.2776528753232848</v>
+        <v>0.07603574505040936</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.4333740457902002</v>
+        <v>0.1345760011003442</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.3950009686623593</v>
+        <v>0.1000491207603591</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.84548155507833</v>
+        <v>0.144640699548004</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.2135205644383603</v>
+        <v>0.1613802888001374</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.1959579478814073</v>
+        <v>0.0811836407017936</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.1999599122893589</v>
+        <v>0.09257613396049739</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.09780070411286666</v>
+        <v>0.1105645231837133</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.07016397732692366</v>
+        <v>0.04773166205034794</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.02737749127738227</v>
+        <v>0.06952318332123605</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.1318104567849233</v>
+        <v>0.1079360390875329</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.08545878939233839</v>
+        <v>0.08430717486924558</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.1478698474744454</v>
+        <v>0.06457543708048016</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.07633548818085517</v>
+        <v>0.1101110273419483</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.1060647688084022</v>
+        <v>0.07444452253839154</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.07474843284344483</v>
+        <v>0.1322561441505065</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0971603227970423</v>
+        <v>0.1009769881602467</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.07321208243878516</v>
+        <v>0.1437094065953157</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.06146225813243384</v>
+        <v>0.161159771495476</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.1298684624487622</v>
+        <v>0.08175027780843545</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.08663619213912201</v>
+        <v>0.09788044657879372</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.1476870448129955</v>
+        <v>0.1118452658778338</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.07802326296625381</v>
+        <v>0.04627626621983564</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.1090257121778603</v>
+        <v>0.07025385904394456</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.07920445148277142</v>
+        <v>0.1090759060011531</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.09870550731767155</v>
+        <v>0.08217874951463418</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.07008615612017639</v>
+        <v>0.05989731850511965</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.02335925311704825</v>
+        <v>0.1120663096440439</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.1316375081015662</v>
+        <v>0.07614426224091464</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.08591486915303775</v>
+        <v>0.1344671476906749</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.1482017998747699</v>
+        <v>0.1003683944976323</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0775263943142082</v>
+        <v>0.1450670259193514</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.1080384697596491</v>
+        <v>0.1619335414571562</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.07649605225539415</v>
+        <v>0.08216701028007205</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.7428947260121466</v>
+        <v>0.09364233271153832</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.5294320866801999</v>
+        <v>0.1122602586753476</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.1056596788709774</v>
+        <v>0.04741472790780269</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.237517387738976</v>
+        <v>0.07016648150682482</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0960440192230409</v>
+        <v>0.1074623241496188</v>
       </c>
       <c r="BY9" t="n">
-        <v>2.196443321603642</v>
+        <v>2.400988746109008</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.3962147623866713</v>
+        <v>0.4466984293815287</v>
       </c>
       <c r="CA9" t="n">
-        <v>2.176497749299591</v>
+        <v>2.37980335197938</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.3225167704592825</v>
+        <v>0.3622908039755738</v>
       </c>
       <c r="CC9" t="n">
-        <v>832.3179846936375</v>
+        <v>826.8084870406566</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>0.006501789045489791</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.4478787614568506</v>
+        <v>0.4537519684327393</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>0.009016183216550894</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.129399378317396</v>
+        <v>0.1220102228135413</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.2485219627549703</v>
+        <v>0.2833758928629899</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.01385015767701742</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.2791480162884259</v>
+        <v>0.273412048944513</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.06318202212515543</v>
+        <v>0.06229471080039368</v>
       </c>
       <c r="CL9" t="n">
-        <v>0</v>
+        <v>0.004771055354069212</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.05474472541636149</v>
+        <v>0.06242406326684518</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.002550257091597866</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.04472131469413596</v>
+        <v>0.05926771807375309</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.04472131469413596</v>
+        <v>0.05410976737642879</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.03163859985841663</v>
+        <v>0.03475993882769261</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.09959788842469107</v>
+        <v>0.09914416233784908</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>0.01632748874159662</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.07060414197980444</v>
+        <v>0.08979823610939557</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>0.02438746506586226</v>
       </c>
       <c r="CV9" t="n">
-        <v>0</v>
+        <v>0.02251762026844613</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>0.01829853182243764</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.09633291585843007</v>
+        <v>0.08384912844747724</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.1183309708462143</v>
+        <v>0.1107574063243545</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.2049619356670414</v>
+        <v>0.2046848758128245</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.7513823080552107</v>
+        <v>0.9160023961526175</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.6497019768293153</v>
+        <v>0.7940556483207578</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.904435137754433</v>
+        <v>1.869294998181557</v>
       </c>
     </row>
   </sheetData>
